--- a/biology/Botanique/Réséda_jaune/Réséda_jaune.xlsx
+++ b/biology/Botanique/Réséda_jaune/Réséda_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da_jaune</t>
+          <t>Réséda_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reseda lutea
 Le Réséda jaune ou  réséda sauvage (Reseda lutea) est une plante herbacée bisannuelle de la famille des résédacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da_jaune</t>
+          <t>Réséda_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Noms vernaculaires : réséda jaune, réséda sauvage, réséda bâtard, faux réséda.
 Reseda lutea se nomme  wild mignonette en anglais, Gelber Wau en allemand, gabarro en espagnol et reseda comune en italien.
-Sous-espèce
-Reseda lutea subsp. lutea var. lutea qui en France n'est présent qu'en Île-de-France, en Corse et dans les départements de Savoie[1].
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da_jaune</t>
+          <t>Réséda_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +555,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reseda lutea subsp. lutea var. lutea qui en France n'est présent qu'en Île-de-France, en Corse et dans les départements de Savoie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Réséda_jaune</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9s%C3%A9da_jaune</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante annuelle, bisannuelle à vivace, de 20 à 70 cm de haut, aux tiges vert pâle. C’est une plante polymorphe. Les feuilles, rudes, sont oblongues à la base, alors que les feuilles supérieures, ondulées, à bords gaufrés sont pennipartites. Les fleurs jaunâtres à verdâtres, à six pétales et six sépales, sont groupées en grappes allongées au sommet.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Réséda_jaune</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9s%C3%A9da_jaune</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaunâtre
 Période de floraison : juin-octobre
 Inflorescence : racème simple
@@ -565,31 +651,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R%C3%A9s%C3%A9da_jaune</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Réséda_jaune</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%A9s%C3%A9da_jaune</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Très commun surtout sur les sols calcaires, les lieux pierreux et caillouteux et les friches.
 Le réséda jaune est présent en Europe centrale et méridionale, en Asie occidentale et en Afrique septentrionale.
@@ -598,33 +686,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R%C3%A9s%C3%A9da_jaune</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Réséda_jaune</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%A9s%C3%A9da_jaune</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reseda lutea possède des propriétés médicinales diurétiques et sudorifiques[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reseda lutea possède des propriétés médicinales diurétiques et sudorifiques.
 Les jeunes pousses sont comestibles crues, en salade pour les feuilles ou préparées comme des asperges pour les tiges.
 </t>
         </is>
